--- a/data/raw_data/plant_data.xlsx
+++ b/data/raw_data/plant_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26105"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2096\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leahlariscy/Desktop/MADA2023/leahlariscy-MADA-project/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC1CB28C-E017-434C-871F-57E5A778D9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3A8C92-E3DF-824B-8333-FABEAE777294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -63,7 +61,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,7 +543,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -900,15 +901,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D712"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A470" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A473" sqref="A473"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -921,7 +924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44019</v>
       </c>
@@ -935,7 +938,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44019</v>
       </c>
@@ -949,7 +952,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44019</v>
       </c>
@@ -963,7 +966,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44026</v>
       </c>
@@ -977,7 +980,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44026</v>
       </c>
@@ -991,7 +994,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44026</v>
       </c>
@@ -1005,7 +1008,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44033</v>
       </c>
@@ -1019,7 +1022,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44033</v>
       </c>
@@ -1033,7 +1036,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44033</v>
       </c>
@@ -1047,7 +1050,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44012</v>
       </c>
@@ -1061,7 +1064,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44005</v>
       </c>
@@ -1075,7 +1078,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43998</v>
       </c>
@@ -1089,7 +1092,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43991</v>
       </c>
@@ -1103,7 +1106,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43984</v>
       </c>
@@ -1117,7 +1120,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43977</v>
       </c>
@@ -1131,7 +1134,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43970</v>
       </c>
@@ -1145,7 +1148,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44012</v>
       </c>
@@ -1159,7 +1162,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44005</v>
       </c>
@@ -1173,7 +1176,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43998</v>
       </c>
@@ -1187,7 +1190,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43991</v>
       </c>
@@ -1201,7 +1204,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43984</v>
       </c>
@@ -1215,7 +1218,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43977</v>
       </c>
@@ -1229,7 +1232,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43970</v>
       </c>
@@ -1243,7 +1246,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44012</v>
       </c>
@@ -1257,7 +1260,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44005</v>
       </c>
@@ -1271,7 +1274,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43998</v>
       </c>
@@ -1285,7 +1288,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43991</v>
       </c>
@@ -1299,7 +1302,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43984</v>
       </c>
@@ -1313,7 +1316,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43977</v>
       </c>
@@ -1327,7 +1330,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43970</v>
       </c>
@@ -1341,7 +1344,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44040</v>
       </c>
@@ -1355,7 +1358,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44040</v>
       </c>
@@ -1369,7 +1372,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44040</v>
       </c>
@@ -1383,7 +1386,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44047</v>
       </c>
@@ -1397,7 +1400,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44047</v>
       </c>
@@ -1411,7 +1414,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44047</v>
       </c>
@@ -1425,7 +1428,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44054</v>
       </c>
@@ -1439,7 +1442,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44054</v>
       </c>
@@ -1453,7 +1456,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44054</v>
       </c>
@@ -1467,7 +1470,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44061</v>
       </c>
@@ -1481,7 +1484,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>44061</v>
       </c>
@@ -1495,7 +1498,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>44061</v>
       </c>
@@ -1509,7 +1512,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44068</v>
       </c>
@@ -1523,7 +1526,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44068</v>
       </c>
@@ -1537,7 +1540,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44068</v>
       </c>
@@ -1551,7 +1554,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>44075</v>
       </c>
@@ -1565,7 +1568,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>44075</v>
       </c>
@@ -1579,7 +1582,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>44075</v>
       </c>
@@ -1593,7 +1596,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>44082</v>
       </c>
@@ -1607,7 +1610,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>44082</v>
       </c>
@@ -1621,7 +1624,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>44082</v>
       </c>
@@ -1635,7 +1638,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>44089</v>
       </c>
@@ -1649,7 +1652,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>44089</v>
       </c>
@@ -1663,7 +1666,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>44089</v>
       </c>
@@ -1677,7 +1680,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>44096</v>
       </c>
@@ -1691,7 +1694,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>44096</v>
       </c>
@@ -1705,7 +1708,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>44096</v>
       </c>
@@ -1719,7 +1722,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>44103</v>
       </c>
@@ -1733,7 +1736,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>44103</v>
       </c>
@@ -1747,7 +1750,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>44103</v>
       </c>
@@ -1761,7 +1764,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>44110</v>
       </c>
@@ -1775,7 +1778,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>44110</v>
       </c>
@@ -1789,7 +1792,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>44110</v>
       </c>
@@ -1803,7 +1806,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>44117</v>
       </c>
@@ -1817,7 +1820,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>44117</v>
       </c>
@@ -1831,7 +1834,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>44117</v>
       </c>
@@ -1845,7 +1848,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>44124</v>
       </c>
@@ -1859,7 +1862,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>44124</v>
       </c>
@@ -1873,7 +1876,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>44124</v>
       </c>
@@ -1887,7 +1890,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>44131</v>
       </c>
@@ -1901,7 +1904,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>44131</v>
       </c>
@@ -1915,7 +1918,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>44131</v>
       </c>
@@ -1929,7 +1932,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>44137</v>
       </c>
@@ -1943,7 +1946,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>44137</v>
       </c>
@@ -1957,7 +1960,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>44137</v>
       </c>
@@ -1971,7 +1974,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>44139</v>
       </c>
@@ -1985,7 +1988,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>44139</v>
       </c>
@@ -1999,7 +2002,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>44139</v>
       </c>
@@ -2013,7 +2016,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>44144</v>
       </c>
@@ -2027,7 +2030,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>44144</v>
       </c>
@@ -2041,7 +2044,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>44144</v>
       </c>
@@ -2055,7 +2058,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>44146</v>
       </c>
@@ -2069,7 +2072,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>44146</v>
       </c>
@@ -2083,7 +2086,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>44146</v>
       </c>
@@ -2097,7 +2100,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>44151</v>
       </c>
@@ -2111,7 +2114,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>44151</v>
       </c>
@@ -2125,7 +2128,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>44151</v>
       </c>
@@ -2139,7 +2142,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>44153</v>
       </c>
@@ -2153,7 +2156,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>44153</v>
       </c>
@@ -2167,7 +2170,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>44153</v>
       </c>
@@ -2181,7 +2184,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>44158</v>
       </c>
@@ -2195,7 +2198,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>44158</v>
       </c>
@@ -2209,7 +2212,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>44158</v>
       </c>
@@ -2223,7 +2226,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>44160</v>
       </c>
@@ -2237,7 +2240,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>44160</v>
       </c>
@@ -2251,7 +2254,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>44160</v>
       </c>
@@ -2265,7 +2268,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>44165</v>
       </c>
@@ -2279,7 +2282,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>44165</v>
       </c>
@@ -2293,7 +2296,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>44165</v>
       </c>
@@ -2307,7 +2310,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>44167</v>
       </c>
@@ -2321,7 +2324,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>44167</v>
       </c>
@@ -2335,7 +2338,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>44167</v>
       </c>
@@ -2349,7 +2352,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>44172</v>
       </c>
@@ -2363,7 +2366,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>44172</v>
       </c>
@@ -2377,7 +2380,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>44172</v>
       </c>
@@ -2391,7 +2394,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>44174</v>
       </c>
@@ -2405,7 +2408,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>44174</v>
       </c>
@@ -2419,7 +2422,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>44174</v>
       </c>
@@ -2433,7 +2436,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>44179</v>
       </c>
@@ -2447,7 +2450,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>44179</v>
       </c>
@@ -2461,7 +2464,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>44179</v>
       </c>
@@ -2475,7 +2478,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>44181</v>
       </c>
@@ -2489,7 +2492,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>44181</v>
       </c>
@@ -2503,7 +2506,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>44181</v>
       </c>
@@ -2517,7 +2520,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>44186</v>
       </c>
@@ -2531,7 +2534,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>44186</v>
       </c>
@@ -2545,7 +2548,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>44186</v>
       </c>
@@ -2559,7 +2562,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>44193</v>
       </c>
@@ -2573,7 +2576,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>44193</v>
       </c>
@@ -2587,7 +2590,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>44193</v>
       </c>
@@ -2601,7 +2604,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>44200</v>
       </c>
@@ -2615,7 +2618,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>44200</v>
       </c>
@@ -2629,7 +2632,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>44200</v>
       </c>
@@ -2643,7 +2646,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>44207</v>
       </c>
@@ -2657,7 +2660,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>44207</v>
       </c>
@@ -2671,7 +2674,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>44207</v>
       </c>
@@ -2685,7 +2688,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>44209</v>
       </c>
@@ -2699,7 +2702,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>44209</v>
       </c>
@@ -2713,7 +2716,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>44209</v>
       </c>
@@ -2727,7 +2730,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>44215</v>
       </c>
@@ -2741,7 +2744,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>44215</v>
       </c>
@@ -2755,7 +2758,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>44215</v>
       </c>
@@ -2769,7 +2772,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>44216</v>
       </c>
@@ -2783,7 +2786,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>44216</v>
       </c>
@@ -2797,7 +2800,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>44216</v>
       </c>
@@ -2811,7 +2814,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>44221</v>
       </c>
@@ -2825,7 +2828,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>44221</v>
       </c>
@@ -2839,7 +2842,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>44221</v>
       </c>
@@ -2853,7 +2856,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>44223</v>
       </c>
@@ -2867,7 +2870,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>44223</v>
       </c>
@@ -2881,7 +2884,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>44223</v>
       </c>
@@ -2895,7 +2898,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>44228</v>
       </c>
@@ -2909,7 +2912,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>44228</v>
       </c>
@@ -2923,7 +2926,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>44228</v>
       </c>
@@ -2937,7 +2940,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>44230</v>
       </c>
@@ -2951,7 +2954,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>44230</v>
       </c>
@@ -2965,7 +2968,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>44230</v>
       </c>
@@ -2979,7 +2982,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>44237</v>
       </c>
@@ -2993,7 +2996,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>44237</v>
       </c>
@@ -3007,7 +3010,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>44237</v>
       </c>
@@ -3021,7 +3024,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>44235</v>
       </c>
@@ -3035,7 +3038,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>44235</v>
       </c>
@@ -3049,7 +3052,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>44235</v>
       </c>
@@ -3063,7 +3066,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>44242</v>
       </c>
@@ -3077,7 +3080,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>44242</v>
       </c>
@@ -3091,7 +3094,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>44242</v>
       </c>
@@ -3105,7 +3108,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>44244</v>
       </c>
@@ -3119,7 +3122,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>44244</v>
       </c>
@@ -3133,7 +3136,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>44244</v>
       </c>
@@ -3147,7 +3150,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>44249</v>
       </c>
@@ -3161,7 +3164,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>44249</v>
       </c>
@@ -3175,7 +3178,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>44249</v>
       </c>
@@ -3189,7 +3192,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>44251</v>
       </c>
@@ -3203,7 +3206,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>44251</v>
       </c>
@@ -3217,7 +3220,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>44251</v>
       </c>
@@ -3231,7 +3234,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>44256</v>
       </c>
@@ -3245,7 +3248,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>44256</v>
       </c>
@@ -3259,7 +3262,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>44256</v>
       </c>
@@ -3273,7 +3276,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>44258</v>
       </c>
@@ -3287,7 +3290,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>44258</v>
       </c>
@@ -3301,7 +3304,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>44258</v>
       </c>
@@ -3315,7 +3318,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>44263</v>
       </c>
@@ -3329,7 +3332,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>44263</v>
       </c>
@@ -3343,7 +3346,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>44263</v>
       </c>
@@ -3357,7 +3360,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>44265</v>
       </c>
@@ -3371,7 +3374,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>44265</v>
       </c>
@@ -3385,7 +3388,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>44265</v>
       </c>
@@ -3399,7 +3402,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>44270</v>
       </c>
@@ -3413,7 +3416,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>44270</v>
       </c>
@@ -3427,7 +3430,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>44270</v>
       </c>
@@ -3441,7 +3444,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>44272</v>
       </c>
@@ -3455,7 +3458,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>44272</v>
       </c>
@@ -3469,7 +3472,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>44272</v>
       </c>
@@ -3483,7 +3486,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>44277</v>
       </c>
@@ -3497,7 +3500,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>44277</v>
       </c>
@@ -3511,7 +3514,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>44277</v>
       </c>
@@ -3525,7 +3528,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>44279</v>
       </c>
@@ -3539,7 +3542,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>44279</v>
       </c>
@@ -3553,7 +3556,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>44279</v>
       </c>
@@ -3567,7 +3570,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>44284</v>
       </c>
@@ -3581,7 +3584,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>44284</v>
       </c>
@@ -3595,7 +3598,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>44284</v>
       </c>
@@ -3609,7 +3612,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>44286</v>
       </c>
@@ -3623,7 +3626,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>44286</v>
       </c>
@@ -3637,7 +3640,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>44286</v>
       </c>
@@ -3651,7 +3654,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>44293</v>
       </c>
@@ -3665,7 +3668,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>44293</v>
       </c>
@@ -3679,7 +3682,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>44293</v>
       </c>
@@ -3693,7 +3696,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>44291</v>
       </c>
@@ -3707,7 +3710,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>44291</v>
       </c>
@@ -3721,7 +3724,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>44291</v>
       </c>
@@ -3735,7 +3738,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>44300</v>
       </c>
@@ -3749,7 +3752,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>44300</v>
       </c>
@@ -3763,7 +3766,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>44300</v>
       </c>
@@ -3777,7 +3780,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>44298</v>
       </c>
@@ -3791,7 +3794,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>44298</v>
       </c>
@@ -3805,7 +3808,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>44298</v>
       </c>
@@ -3819,7 +3822,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>44307</v>
       </c>
@@ -3833,7 +3836,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>44307</v>
       </c>
@@ -3847,7 +3850,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>44307</v>
       </c>
@@ -3861,7 +3864,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>44305</v>
       </c>
@@ -3875,7 +3878,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>44305</v>
       </c>
@@ -3889,7 +3892,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>44305</v>
       </c>
@@ -3903,7 +3906,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>44312</v>
       </c>
@@ -3917,7 +3920,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>44312</v>
       </c>
@@ -3931,7 +3934,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>44312</v>
       </c>
@@ -3945,7 +3948,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>44314</v>
       </c>
@@ -3959,7 +3962,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>44314</v>
       </c>
@@ -3973,7 +3976,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>44314</v>
       </c>
@@ -3987,7 +3990,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>44321</v>
       </c>
@@ -4001,7 +4004,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>44321</v>
       </c>
@@ -4015,7 +4018,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>44321</v>
       </c>
@@ -4029,7 +4032,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>44319</v>
       </c>
@@ -4043,7 +4046,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>44319</v>
       </c>
@@ -4057,7 +4060,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>44319</v>
       </c>
@@ -4071,7 +4074,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>44326</v>
       </c>
@@ -4085,7 +4088,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>44326</v>
       </c>
@@ -4099,7 +4102,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>44326</v>
       </c>
@@ -4113,7 +4116,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>44328</v>
       </c>
@@ -4127,7 +4130,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>44328</v>
       </c>
@@ -4141,7 +4144,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>44328</v>
       </c>
@@ -4155,7 +4158,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>44333</v>
       </c>
@@ -4169,7 +4172,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>44333</v>
       </c>
@@ -4183,7 +4186,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>44333</v>
       </c>
@@ -4197,7 +4200,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>44335</v>
       </c>
@@ -4211,7 +4214,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>44335</v>
       </c>
@@ -4225,7 +4228,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>44335</v>
       </c>
@@ -4239,7 +4242,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>44340</v>
       </c>
@@ -4253,7 +4256,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>44340</v>
       </c>
@@ -4267,7 +4270,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>44340</v>
       </c>
@@ -4281,7 +4284,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>44342</v>
       </c>
@@ -4295,7 +4298,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>44342</v>
       </c>
@@ -4309,7 +4312,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>44342</v>
       </c>
@@ -4323,7 +4326,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>44348</v>
       </c>
@@ -4337,7 +4340,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>44348</v>
       </c>
@@ -4351,7 +4354,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>44348</v>
       </c>
@@ -4365,7 +4368,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>44349</v>
       </c>
@@ -4379,7 +4382,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>44349</v>
       </c>
@@ -4393,7 +4396,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>44349</v>
       </c>
@@ -4407,7 +4410,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>44354</v>
       </c>
@@ -4421,7 +4424,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>44354</v>
       </c>
@@ -4435,7 +4438,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>44354</v>
       </c>
@@ -4449,7 +4452,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>44356</v>
       </c>
@@ -4463,7 +4466,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>44356</v>
       </c>
@@ -4477,7 +4480,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>44356</v>
       </c>
@@ -4491,7 +4494,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>44361</v>
       </c>
@@ -4505,7 +4508,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>44361</v>
       </c>
@@ -4519,7 +4522,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>44361</v>
       </c>
@@ -4533,7 +4536,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>44363</v>
       </c>
@@ -4547,7 +4550,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>44363</v>
       </c>
@@ -4561,7 +4564,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>44363</v>
       </c>
@@ -4575,7 +4578,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>44368</v>
       </c>
@@ -4589,7 +4592,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>44368</v>
       </c>
@@ -4603,7 +4606,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>44368</v>
       </c>
@@ -4617,7 +4620,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>44370</v>
       </c>
@@ -4631,7 +4634,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>44370</v>
       </c>
@@ -4645,7 +4648,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>44370</v>
       </c>
@@ -4659,7 +4662,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>44375</v>
       </c>
@@ -4673,7 +4676,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>44375</v>
       </c>
@@ -4687,7 +4690,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>44375</v>
       </c>
@@ -4701,7 +4704,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>44377</v>
       </c>
@@ -4715,7 +4718,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>44377</v>
       </c>
@@ -4729,7 +4732,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>44377</v>
       </c>
@@ -4743,7 +4746,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>44383</v>
       </c>
@@ -4757,7 +4760,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>44383</v>
       </c>
@@ -4771,7 +4774,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>44383</v>
       </c>
@@ -4785,7 +4788,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>44384</v>
       </c>
@@ -4799,7 +4802,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>44384</v>
       </c>
@@ -4813,7 +4816,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>44384</v>
       </c>
@@ -4827,7 +4830,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>44389</v>
       </c>
@@ -4841,7 +4844,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>44389</v>
       </c>
@@ -4855,7 +4858,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>44389</v>
       </c>
@@ -4869,7 +4872,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>44391</v>
       </c>
@@ -4883,7 +4886,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>44391</v>
       </c>
@@ -4897,7 +4900,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>44391</v>
       </c>
@@ -4911,7 +4914,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>44396</v>
       </c>
@@ -4925,7 +4928,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>44396</v>
       </c>
@@ -4939,7 +4942,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>44396</v>
       </c>
@@ -4953,7 +4956,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>44398</v>
       </c>
@@ -4967,7 +4970,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>44398</v>
       </c>
@@ -4981,7 +4984,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>44398</v>
       </c>
@@ -4995,7 +4998,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>44403</v>
       </c>
@@ -5009,7 +5012,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>44403</v>
       </c>
@@ -5023,7 +5026,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>44403</v>
       </c>
@@ -5037,7 +5040,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>44405</v>
       </c>
@@ -5051,7 +5054,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>44405</v>
       </c>
@@ -5065,7 +5068,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>44405</v>
       </c>
@@ -5079,7 +5082,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>44410</v>
       </c>
@@ -5093,7 +5096,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>44410</v>
       </c>
@@ -5107,7 +5110,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>44410</v>
       </c>
@@ -5121,7 +5124,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>44412</v>
       </c>
@@ -5135,7 +5138,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>44412</v>
       </c>
@@ -5149,7 +5152,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>44412</v>
       </c>
@@ -5163,7 +5166,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>44417</v>
       </c>
@@ -5177,7 +5180,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>44417</v>
       </c>
@@ -5191,7 +5194,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>44417</v>
       </c>
@@ -5205,7 +5208,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>44419</v>
       </c>
@@ -5219,7 +5222,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>44419</v>
       </c>
@@ -5233,7 +5236,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>44419</v>
       </c>
@@ -5247,7 +5250,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>44424</v>
       </c>
@@ -5261,7 +5264,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>44424</v>
       </c>
@@ -5275,7 +5278,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>44424</v>
       </c>
@@ -5289,7 +5292,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>44426</v>
       </c>
@@ -5303,7 +5306,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>44426</v>
       </c>
@@ -5317,7 +5320,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>44426</v>
       </c>
@@ -5331,7 +5334,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>44431</v>
       </c>
@@ -5345,7 +5348,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>44431</v>
       </c>
@@ -5359,7 +5362,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>44431</v>
       </c>
@@ -5373,7 +5376,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>44433</v>
       </c>
@@ -5387,7 +5390,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>44433</v>
       </c>
@@ -5401,7 +5404,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>44433</v>
       </c>
@@ -5415,7 +5418,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>44438</v>
       </c>
@@ -5429,7 +5432,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>44438</v>
       </c>
@@ -5443,7 +5446,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>44438</v>
       </c>
@@ -5457,7 +5460,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>44440</v>
       </c>
@@ -5471,7 +5474,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>44440</v>
       </c>
@@ -5485,7 +5488,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>44440</v>
       </c>
@@ -5499,7 +5502,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>44446</v>
       </c>
@@ -5513,7 +5516,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>44446</v>
       </c>
@@ -5527,7 +5530,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>44446</v>
       </c>
@@ -5541,7 +5544,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>44447</v>
       </c>
@@ -5555,7 +5558,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>44447</v>
       </c>
@@ -5569,7 +5572,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>44447</v>
       </c>
@@ -5583,7 +5586,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>44452</v>
       </c>
@@ -5597,7 +5600,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>44452</v>
       </c>
@@ -5611,7 +5614,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>44452</v>
       </c>
@@ -5625,7 +5628,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>44454</v>
       </c>
@@ -5639,7 +5642,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>44454</v>
       </c>
@@ -5653,7 +5656,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>44454</v>
       </c>
@@ -5667,7 +5670,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>44459</v>
       </c>
@@ -5681,7 +5684,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>44459</v>
       </c>
@@ -5695,7 +5698,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>44459</v>
       </c>
@@ -5709,7 +5712,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>44461</v>
       </c>
@@ -5723,7 +5726,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>44461</v>
       </c>
@@ -5737,7 +5740,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>44461</v>
       </c>
@@ -5751,7 +5754,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>44466</v>
       </c>
@@ -5765,7 +5768,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>44466</v>
       </c>
@@ -5779,7 +5782,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>44466</v>
       </c>
@@ -5793,7 +5796,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>44468</v>
       </c>
@@ -5807,7 +5810,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>44468</v>
       </c>
@@ -5821,7 +5824,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>44468</v>
       </c>
@@ -5835,7 +5838,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>44473</v>
       </c>
@@ -5849,7 +5852,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>44473</v>
       </c>
@@ -5863,7 +5866,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>44473</v>
       </c>
@@ -5877,7 +5880,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>44475</v>
       </c>
@@ -5891,7 +5894,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>44475</v>
       </c>
@@ -5905,7 +5908,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>44475</v>
       </c>
@@ -5919,7 +5922,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>44480</v>
       </c>
@@ -5933,7 +5936,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>44480</v>
       </c>
@@ -5947,7 +5950,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>44480</v>
       </c>
@@ -5961,7 +5964,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>44482</v>
       </c>
@@ -5975,7 +5978,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>44482</v>
       </c>
@@ -5989,7 +5992,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>44482</v>
       </c>
@@ -6003,7 +6006,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>44487</v>
       </c>
@@ -6017,7 +6020,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>44487</v>
       </c>
@@ -6031,7 +6034,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>44487</v>
       </c>
@@ -6045,7 +6048,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>44489</v>
       </c>
@@ -6059,7 +6062,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>44489</v>
       </c>
@@ -6073,7 +6076,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>44489</v>
       </c>
@@ -6087,7 +6090,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>44494</v>
       </c>
@@ -6101,7 +6104,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>44494</v>
       </c>
@@ -6115,7 +6118,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>44494</v>
       </c>
@@ -6129,7 +6132,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>44496</v>
       </c>
@@ -6143,7 +6146,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>44496</v>
       </c>
@@ -6157,7 +6160,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>44496</v>
       </c>
@@ -6171,7 +6174,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>44501</v>
       </c>
@@ -6185,7 +6188,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>44501</v>
       </c>
@@ -6199,7 +6202,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>44501</v>
       </c>
@@ -6213,7 +6216,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>44503</v>
       </c>
@@ -6227,7 +6230,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>44503</v>
       </c>
@@ -6241,7 +6244,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>44503</v>
       </c>
@@ -6255,7 +6258,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>44508</v>
       </c>
@@ -6269,7 +6272,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>44508</v>
       </c>
@@ -6283,7 +6286,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>44508</v>
       </c>
@@ -6297,7 +6300,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>44510</v>
       </c>
@@ -6311,7 +6314,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>44510</v>
       </c>
@@ -6325,7 +6328,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>44510</v>
       </c>
@@ -6339,7 +6342,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>44515</v>
       </c>
@@ -6353,7 +6356,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>44515</v>
       </c>
@@ -6367,7 +6370,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>44515</v>
       </c>
@@ -6381,7 +6384,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>44517</v>
       </c>
@@ -6395,7 +6398,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>44517</v>
       </c>
@@ -6409,7 +6412,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>44517</v>
       </c>
@@ -6423,7 +6426,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>44522</v>
       </c>
@@ -6437,7 +6440,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>44522</v>
       </c>
@@ -6451,7 +6454,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>44522</v>
       </c>
@@ -6465,7 +6468,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>44529</v>
       </c>
@@ -6479,7 +6482,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>44529</v>
       </c>
@@ -6493,7 +6496,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>44529</v>
       </c>
@@ -6507,7 +6510,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>44531</v>
       </c>
@@ -6521,7 +6524,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>44531</v>
       </c>
@@ -6535,7 +6538,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>44531</v>
       </c>
@@ -6549,7 +6552,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>44536</v>
       </c>
@@ -6563,7 +6566,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>44536</v>
       </c>
@@ -6577,7 +6580,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>44536</v>
       </c>
@@ -6591,7 +6594,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>44538</v>
       </c>
@@ -6605,7 +6608,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>44538</v>
       </c>
@@ -6619,7 +6622,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>44538</v>
       </c>
@@ -6633,7 +6636,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>44543</v>
       </c>
@@ -6647,7 +6650,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>44543</v>
       </c>
@@ -6661,7 +6664,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>44543</v>
       </c>
@@ -6675,7 +6678,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>44545</v>
       </c>
@@ -6689,7 +6692,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>44545</v>
       </c>
@@ -6703,7 +6706,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>44545</v>
       </c>
@@ -6717,7 +6720,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>44550</v>
       </c>
@@ -6731,7 +6734,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>44550</v>
       </c>
@@ -6745,7 +6748,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>44550</v>
       </c>
@@ -6759,7 +6762,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>44557</v>
       </c>
@@ -6773,7 +6776,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>44557</v>
       </c>
@@ -6787,7 +6790,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>44557</v>
       </c>
@@ -6801,7 +6804,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>44564</v>
       </c>
@@ -6815,7 +6818,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>44564</v>
       </c>
@@ -6829,7 +6832,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>44564</v>
       </c>
@@ -6843,7 +6846,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>44566</v>
       </c>
@@ -6857,7 +6860,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>44566</v>
       </c>
@@ -6871,7 +6874,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>44566</v>
       </c>
@@ -6885,7 +6888,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>44571</v>
       </c>
@@ -6899,7 +6902,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>44571</v>
       </c>
@@ -6913,7 +6916,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>44571</v>
       </c>
@@ -6927,7 +6930,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>44573</v>
       </c>
@@ -6941,7 +6944,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>44573</v>
       </c>
@@ -6955,7 +6958,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>44573</v>
       </c>
@@ -6969,7 +6972,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>44578</v>
       </c>
@@ -6983,7 +6986,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>44578</v>
       </c>
@@ -6997,7 +7000,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>44578</v>
       </c>
@@ -7011,7 +7014,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>44580</v>
       </c>
@@ -7025,7 +7028,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>44580</v>
       </c>
@@ -7039,7 +7042,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>44580</v>
       </c>
@@ -7053,7 +7056,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>44585</v>
       </c>
@@ -7067,7 +7070,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>44585</v>
       </c>
@@ -7081,7 +7084,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>44585</v>
       </c>
@@ -7095,7 +7098,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>44587</v>
       </c>
@@ -7109,7 +7112,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>44587</v>
       </c>
@@ -7123,7 +7126,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>44587</v>
       </c>
@@ -7137,7 +7140,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>44592</v>
       </c>
@@ -7151,7 +7154,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>44592</v>
       </c>
@@ -7165,7 +7168,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>44592</v>
       </c>
@@ -7179,7 +7182,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>44594</v>
       </c>
@@ -7193,7 +7196,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>44594</v>
       </c>
@@ -7207,7 +7210,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>44594</v>
       </c>
@@ -7221,7 +7224,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>44599</v>
       </c>
@@ -7235,7 +7238,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>44599</v>
       </c>
@@ -7249,7 +7252,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>44599</v>
       </c>
@@ -7263,7 +7266,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>44601</v>
       </c>
@@ -7277,7 +7280,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>44601</v>
       </c>
@@ -7291,7 +7294,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>44601</v>
       </c>
@@ -7305,7 +7308,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>44606</v>
       </c>
@@ -7319,7 +7322,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>44606</v>
       </c>
@@ -7333,7 +7336,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>44606</v>
       </c>
@@ -7347,7 +7350,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>44608</v>
       </c>
@@ -7361,7 +7364,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>44608</v>
       </c>
@@ -7375,7 +7378,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>44608</v>
       </c>
@@ -7389,7 +7392,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>44613</v>
       </c>
@@ -7403,7 +7406,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>44613</v>
       </c>
@@ -7417,7 +7420,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>44613</v>
       </c>
@@ -7431,7 +7434,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>44615</v>
       </c>
@@ -7445,7 +7448,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>44615</v>
       </c>
@@ -7459,7 +7462,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>44615</v>
       </c>
@@ -7473,7 +7476,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>44620</v>
       </c>
@@ -7487,7 +7490,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>44620</v>
       </c>
@@ -7501,7 +7504,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>44620</v>
       </c>
@@ -7515,9 +7518,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
-        <v>44621</v>
+        <v>44622</v>
       </c>
       <c r="B473" t="s">
         <v>4</v>
@@ -7529,9 +7532,9 @@
         <v>230</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
-        <v>44621</v>
+        <v>44622</v>
       </c>
       <c r="B474" t="s">
         <v>7</v>
@@ -7543,9 +7546,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
-        <v>44621</v>
+        <v>44622</v>
       </c>
       <c r="B475" t="s">
         <v>6</v>
@@ -7557,7 +7560,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>44627</v>
       </c>
@@ -7571,7 +7574,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>44627</v>
       </c>
@@ -7585,7 +7588,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>44627</v>
       </c>
@@ -7599,7 +7602,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>44629</v>
       </c>
@@ -7613,7 +7616,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>44629</v>
       </c>
@@ -7627,7 +7630,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>44629</v>
       </c>
@@ -7641,7 +7644,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>44634</v>
       </c>
@@ -7655,7 +7658,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>44634</v>
       </c>
@@ -7669,7 +7672,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>44634</v>
       </c>
@@ -7683,7 +7686,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>44636</v>
       </c>
@@ -7697,7 +7700,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>44636</v>
       </c>
@@ -7711,7 +7714,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>44636</v>
       </c>
@@ -7725,7 +7728,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>44641</v>
       </c>
@@ -7739,7 +7742,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>44641</v>
       </c>
@@ -7753,7 +7756,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>44641</v>
       </c>
@@ -7767,7 +7770,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>44643</v>
       </c>
@@ -7781,7 +7784,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>44643</v>
       </c>
@@ -7795,7 +7798,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>44643</v>
       </c>
@@ -7809,7 +7812,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>44648</v>
       </c>
@@ -7823,7 +7826,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>44648</v>
       </c>
@@ -7837,7 +7840,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="496" spans="1:4">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>44648</v>
       </c>
@@ -7851,7 +7854,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="497" spans="1:4">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>44650</v>
       </c>
@@ -7865,7 +7868,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="498" spans="1:4">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>44650</v>
       </c>
@@ -7879,7 +7882,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="499" spans="1:4">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>44650</v>
       </c>
@@ -7893,7 +7896,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="500" spans="1:4">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>44655</v>
       </c>
@@ -7907,7 +7910,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="501" spans="1:4">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>44655</v>
       </c>
@@ -7921,7 +7924,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="502" spans="1:4">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>44655</v>
       </c>
@@ -7935,7 +7938,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="503" spans="1:4">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>44657</v>
       </c>
@@ -7949,7 +7952,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="504" spans="1:4">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>44657</v>
       </c>
@@ -7963,7 +7966,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="505" spans="1:4">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>44657</v>
       </c>
@@ -7977,7 +7980,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="506" spans="1:4">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>44662</v>
       </c>
@@ -7991,7 +7994,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="507" spans="1:4">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>44662</v>
       </c>
@@ -8005,7 +8008,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="508" spans="1:4">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>44662</v>
       </c>
@@ -8019,7 +8022,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="509" spans="1:4">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>44664</v>
       </c>
@@ -8033,7 +8036,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="510" spans="1:4">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>44664</v>
       </c>
@@ -8047,7 +8050,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="511" spans="1:4">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>44664</v>
       </c>
@@ -8061,7 +8064,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="512" spans="1:4">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>44669</v>
       </c>
@@ -8075,7 +8078,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="513" spans="1:4">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>44669</v>
       </c>
@@ -8089,7 +8092,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="514" spans="1:4">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>44669</v>
       </c>
@@ -8103,7 +8106,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="515" spans="1:4">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>44671</v>
       </c>
@@ -8117,7 +8120,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="516" spans="1:4">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>44671</v>
       </c>
@@ -8131,7 +8134,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="517" spans="1:4">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>44671</v>
       </c>
@@ -8145,7 +8148,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="518" spans="1:4">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>44676</v>
       </c>
@@ -8159,7 +8162,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="519" spans="1:4">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>44676</v>
       </c>
@@ -8173,7 +8176,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="520" spans="1:4">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>44676</v>
       </c>
@@ -8187,7 +8190,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="521" spans="1:4">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>44678</v>
       </c>
@@ -8201,7 +8204,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="522" spans="1:4">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>44678</v>
       </c>
@@ -8215,7 +8218,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="523" spans="1:4">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>44678</v>
       </c>
@@ -8229,7 +8232,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="524" spans="1:4">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>44683</v>
       </c>
@@ -8243,7 +8246,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="525" spans="1:4">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>44683</v>
       </c>
@@ -8257,7 +8260,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="526" spans="1:4">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>44683</v>
       </c>
@@ -8271,7 +8274,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="527" spans="1:4">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>44690</v>
       </c>
@@ -8285,7 +8288,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="528" spans="1:4">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>44690</v>
       </c>
@@ -8299,7 +8302,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="529" spans="1:4">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>44690</v>
       </c>
@@ -8313,7 +8316,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="530" spans="1:4">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>44692</v>
       </c>
@@ -8327,7 +8330,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="531" spans="1:4">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>44692</v>
       </c>
@@ -8341,7 +8344,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="532" spans="1:4">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>44692</v>
       </c>
@@ -8355,7 +8358,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="533" spans="1:4">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>44697</v>
       </c>
@@ -8369,7 +8372,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="534" spans="1:4">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>44697</v>
       </c>
@@ -8383,7 +8386,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="535" spans="1:4">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>44697</v>
       </c>
@@ -8397,7 +8400,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="536" spans="1:4">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>44699</v>
       </c>
@@ -8411,7 +8414,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="537" spans="1:4">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>44699</v>
       </c>
@@ -8425,7 +8428,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="538" spans="1:4">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>44699</v>
       </c>
@@ -8439,7 +8442,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="539" spans="1:4">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>44704</v>
       </c>
@@ -8453,7 +8456,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="540" spans="1:4">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>44704</v>
       </c>
@@ -8467,7 +8470,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="541" spans="1:4">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>44704</v>
       </c>
@@ -8481,7 +8484,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="542" spans="1:4">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>44706</v>
       </c>
@@ -8495,7 +8498,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="543" spans="1:4">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>44706</v>
       </c>
@@ -8509,7 +8512,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="544" spans="1:4">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>44706</v>
       </c>
@@ -8523,7 +8526,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="545" spans="1:4">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>44712</v>
       </c>
@@ -8537,7 +8540,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="546" spans="1:4">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>44712</v>
       </c>
@@ -8551,7 +8554,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="547" spans="1:4">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>44712</v>
       </c>
@@ -8565,7 +8568,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="548" spans="1:4">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>44713</v>
       </c>
@@ -8579,7 +8582,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="549" spans="1:4">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>44713</v>
       </c>
@@ -8593,7 +8596,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="550" spans="1:4">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>44713</v>
       </c>
@@ -8607,7 +8610,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="551" spans="1:4">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>44718</v>
       </c>
@@ -8621,7 +8624,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="552" spans="1:4">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>44718</v>
       </c>
@@ -8635,7 +8638,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="553" spans="1:4">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>44718</v>
       </c>
@@ -8649,7 +8652,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="554" spans="1:4">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>44720</v>
       </c>
@@ -8663,7 +8666,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="555" spans="1:4">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>44720</v>
       </c>
@@ -8677,7 +8680,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="556" spans="1:4">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>44720</v>
       </c>
@@ -8691,7 +8694,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="557" spans="1:4">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>44725</v>
       </c>
@@ -8705,7 +8708,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="558" spans="1:4">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>44725</v>
       </c>
@@ -8719,7 +8722,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="559" spans="1:4">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>44725</v>
       </c>
@@ -8733,7 +8736,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="560" spans="1:4">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>44727</v>
       </c>
@@ -8747,7 +8750,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="561" spans="1:4">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>44727</v>
       </c>
@@ -8761,7 +8764,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="562" spans="1:4">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>44727</v>
       </c>
@@ -8775,7 +8778,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="563" spans="1:4">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>44732</v>
       </c>
@@ -8789,7 +8792,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="564" spans="1:4">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>44732</v>
       </c>
@@ -8803,7 +8806,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="565" spans="1:4">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>44732</v>
       </c>
@@ -8817,7 +8820,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="566" spans="1:4">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>44734</v>
       </c>
@@ -8831,7 +8834,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="567" spans="1:4">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>44734</v>
       </c>
@@ -8845,7 +8848,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="568" spans="1:4">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>44734</v>
       </c>
@@ -8859,7 +8862,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="569" spans="1:4">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>44739</v>
       </c>
@@ -8873,7 +8876,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="570" spans="1:4">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>44739</v>
       </c>
@@ -8887,7 +8890,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="571" spans="1:4">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>44739</v>
       </c>
@@ -8901,7 +8904,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="572" spans="1:4">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>44741</v>
       </c>
@@ -8915,7 +8918,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="573" spans="1:4">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>44741</v>
       </c>
@@ -8929,7 +8932,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="574" spans="1:4">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>44741</v>
       </c>
@@ -8943,7 +8946,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="575" spans="1:4">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>44746</v>
       </c>
@@ -8957,7 +8960,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="576" spans="1:4">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>44746</v>
       </c>
@@ -8971,7 +8974,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="577" spans="1:4">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>44746</v>
       </c>
@@ -8985,7 +8988,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="578" spans="1:4">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>44748</v>
       </c>
@@ -8999,7 +9002,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="579" spans="1:4">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>44748</v>
       </c>
@@ -9013,7 +9016,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="580" spans="1:4">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>44748</v>
       </c>
@@ -9027,7 +9030,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="581" spans="1:4">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>44753</v>
       </c>
@@ -9041,7 +9044,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="582" spans="1:4">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>44753</v>
       </c>
@@ -9055,7 +9058,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="583" spans="1:4">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>44753</v>
       </c>
@@ -9069,7 +9072,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="584" spans="1:4">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>44755</v>
       </c>
@@ -9083,7 +9086,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="585" spans="1:4">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>44755</v>
       </c>
@@ -9097,7 +9100,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="586" spans="1:4">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>44755</v>
       </c>
@@ -9111,7 +9114,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="587" spans="1:4">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>44760</v>
       </c>
@@ -9125,7 +9128,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="588" spans="1:4">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>44760</v>
       </c>
@@ -9139,7 +9142,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="589" spans="1:4">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>44760</v>
       </c>
@@ -9153,7 +9156,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="590" spans="1:4">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>44762</v>
       </c>
@@ -9167,7 +9170,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="591" spans="1:4">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>44762</v>
       </c>
@@ -9181,7 +9184,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="592" spans="1:4">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>44762</v>
       </c>
@@ -9195,7 +9198,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="593" spans="1:4">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>44767</v>
       </c>
@@ -9209,7 +9212,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="594" spans="1:4">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>44767</v>
       </c>
@@ -9223,7 +9226,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="595" spans="1:4">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>44767</v>
       </c>
@@ -9237,7 +9240,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="596" spans="1:4">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>44769</v>
       </c>
@@ -9251,7 +9254,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="597" spans="1:4">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>44769</v>
       </c>
@@ -9265,7 +9268,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="598" spans="1:4">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>44769</v>
       </c>
@@ -9279,7 +9282,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="599" spans="1:4">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>44774</v>
       </c>
@@ -9293,7 +9296,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="600" spans="1:4">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>44774</v>
       </c>
@@ -9307,7 +9310,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="601" spans="1:4">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>44774</v>
       </c>
@@ -9321,7 +9324,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="602" spans="1:4">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>44776</v>
       </c>
@@ -9335,7 +9338,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="603" spans="1:4">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>44776</v>
       </c>
@@ -9349,7 +9352,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="604" spans="1:4">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>44776</v>
       </c>
@@ -9363,7 +9366,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="605" spans="1:4">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>44781</v>
       </c>
@@ -9377,7 +9380,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="606" spans="1:4">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <v>44781</v>
       </c>
@@ -9391,7 +9394,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="607" spans="1:4">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>44781</v>
       </c>
@@ -9405,7 +9408,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="608" spans="1:4">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <v>44783</v>
       </c>
@@ -9419,7 +9422,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="609" spans="1:4">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>44783</v>
       </c>
@@ -9433,7 +9436,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="610" spans="1:4">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>44783</v>
       </c>
@@ -9447,7 +9450,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="611" spans="1:4">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>44788</v>
       </c>
@@ -9461,7 +9464,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="612" spans="1:4">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>44788</v>
       </c>
@@ -9475,7 +9478,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="613" spans="1:4">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <v>44788</v>
       </c>
@@ -9489,7 +9492,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="614" spans="1:4">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <v>44790</v>
       </c>
@@ -9503,7 +9506,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="615" spans="1:4">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>44790</v>
       </c>
@@ -9517,7 +9520,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="616" spans="1:4">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <v>44790</v>
       </c>
@@ -9531,7 +9534,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="617" spans="1:4">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <v>44795</v>
       </c>
@@ -9545,7 +9548,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="618" spans="1:4">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <v>44795</v>
       </c>
@@ -9559,7 +9562,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="619" spans="1:4">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <v>44795</v>
       </c>
@@ -9573,7 +9576,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="620" spans="1:4">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
         <v>44797</v>
       </c>
@@ -9587,7 +9590,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="621" spans="1:4">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
         <v>44797</v>
       </c>
@@ -9601,7 +9604,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="622" spans="1:4">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
         <v>44797</v>
       </c>
@@ -9615,7 +9618,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="623" spans="1:4">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
         <v>44802</v>
       </c>
@@ -9629,7 +9632,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="624" spans="1:4">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
         <v>44802</v>
       </c>
@@ -9643,7 +9646,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="625" spans="1:4">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>44802</v>
       </c>
@@ -9657,7 +9660,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="626" spans="1:4">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
         <v>44804</v>
       </c>
@@ -9671,7 +9674,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="627" spans="1:4">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <v>44804</v>
       </c>
@@ -9685,7 +9688,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="628" spans="1:4">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <v>44804</v>
       </c>
@@ -9699,7 +9702,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="629" spans="1:4">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
         <v>44809</v>
       </c>
@@ -9713,7 +9716,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="630" spans="1:4">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
         <v>44809</v>
       </c>
@@ -9727,7 +9730,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="631" spans="1:4">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
         <v>44809</v>
       </c>
@@ -9741,7 +9744,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="632" spans="1:4">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
         <v>44811</v>
       </c>
@@ -9755,7 +9758,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="633" spans="1:4">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
         <v>44811</v>
       </c>
@@ -9769,7 +9772,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="634" spans="1:4">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
         <v>44811</v>
       </c>
@@ -9783,7 +9786,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="635" spans="1:4">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
         <v>44817</v>
       </c>
@@ -9797,7 +9800,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="636" spans="1:4">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
         <v>44817</v>
       </c>
@@ -9811,7 +9814,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="637" spans="1:4">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
         <v>44817</v>
       </c>
@@ -9825,7 +9828,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="638" spans="1:4">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
         <v>44818</v>
       </c>
@@ -9839,7 +9842,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="639" spans="1:4">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
         <v>44818</v>
       </c>
@@ -9853,7 +9856,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="640" spans="1:4">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
         <v>44818</v>
       </c>
@@ -9867,7 +9870,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="641" spans="1:4">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
         <v>44811</v>
       </c>
@@ -9881,7 +9884,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="642" spans="1:4">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
         <v>44811</v>
       </c>
@@ -9895,7 +9898,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="643" spans="1:4">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
         <v>44811</v>
       </c>
@@ -9909,7 +9912,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="644" spans="1:4">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
         <v>44823</v>
       </c>
@@ -9923,7 +9926,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="645" spans="1:4">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
         <v>44823</v>
       </c>
@@ -9937,7 +9940,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="646" spans="1:4">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
         <v>44823</v>
       </c>
@@ -9951,7 +9954,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="647" spans="1:4">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
         <v>44825</v>
       </c>
@@ -9965,7 +9968,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="648" spans="1:4">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
         <v>44825</v>
       </c>
@@ -9979,7 +9982,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="649" spans="1:4">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
         <v>44825</v>
       </c>
@@ -9993,7 +9996,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="650" spans="1:4">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
         <v>44830</v>
       </c>
@@ -10007,7 +10010,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="651" spans="1:4">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
         <v>44830</v>
       </c>
@@ -10021,7 +10024,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="652" spans="1:4">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
         <v>44830</v>
       </c>
@@ -10035,7 +10038,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="653" spans="1:4">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
         <v>44832</v>
       </c>
@@ -10049,7 +10052,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="654" spans="1:4">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
         <v>44832</v>
       </c>
@@ -10063,7 +10066,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="655" spans="1:4">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
         <v>44832</v>
       </c>
@@ -10077,7 +10080,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="656" spans="1:4">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
         <v>44837</v>
       </c>
@@ -10088,7 +10091,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="657" spans="1:4">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
         <v>44837</v>
       </c>
@@ -10099,7 +10102,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="658" spans="1:4">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
         <v>44837</v>
       </c>
@@ -10110,7 +10113,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="659" spans="1:4">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
         <v>44839</v>
       </c>
@@ -10124,7 +10127,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="660" spans="1:4">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
         <v>44839</v>
       </c>
@@ -10138,7 +10141,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="661" spans="1:4">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
         <v>44839</v>
       </c>
@@ -10152,7 +10155,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="662" spans="1:4">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
         <v>44844</v>
       </c>
@@ -10166,7 +10169,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="663" spans="1:4">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
         <v>44844</v>
       </c>
@@ -10180,7 +10183,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="664" spans="1:4">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
         <v>44844</v>
       </c>
@@ -10194,7 +10197,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="665" spans="1:4">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
         <v>44846</v>
       </c>
@@ -10208,7 +10211,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="666" spans="1:4">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
         <v>44846</v>
       </c>
@@ -10222,7 +10225,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="667" spans="1:4">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
         <v>44846</v>
       </c>
@@ -10236,7 +10239,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="668" spans="1:4">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
         <v>44851</v>
       </c>
@@ -10250,7 +10253,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="669" spans="1:4">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
         <v>44851</v>
       </c>
@@ -10264,7 +10267,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="670" spans="1:4">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
         <v>44851</v>
       </c>
@@ -10278,7 +10281,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="671" spans="1:4">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
         <v>44853</v>
       </c>
@@ -10292,7 +10295,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="672" spans="1:4">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
         <v>44853</v>
       </c>
@@ -10306,7 +10309,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="673" spans="1:4">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
         <v>44853</v>
       </c>
@@ -10320,7 +10323,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="674" spans="1:4">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
         <v>44858</v>
       </c>
@@ -10334,7 +10337,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="675" spans="1:4">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
         <v>44858</v>
       </c>
@@ -10348,7 +10351,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="676" spans="1:4">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
         <v>44858</v>
       </c>
@@ -10362,7 +10365,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="677" spans="1:4">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
         <v>44860</v>
       </c>
@@ -10376,7 +10379,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="678" spans="1:4">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
         <v>44860</v>
       </c>
@@ -10390,7 +10393,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="679" spans="1:4">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
         <v>44860</v>
       </c>
@@ -10404,7 +10407,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="680" spans="1:4">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
         <v>44865</v>
       </c>
@@ -10418,7 +10421,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="681" spans="1:4">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
         <v>44865</v>
       </c>
@@ -10432,7 +10435,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="682" spans="1:4">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A682" s="1">
         <v>44865</v>
       </c>
@@ -10446,7 +10449,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="683" spans="1:4">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A683" s="1">
         <v>44867</v>
       </c>
@@ -10460,7 +10463,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="684" spans="1:4">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
         <v>44867</v>
       </c>
@@ -10474,7 +10477,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="685" spans="1:4">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A685" s="1">
         <v>44867</v>
       </c>
@@ -10488,7 +10491,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="686" spans="1:4">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
         <v>44872</v>
       </c>
@@ -10502,7 +10505,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="687" spans="1:4">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
         <v>44872</v>
       </c>
@@ -10516,7 +10519,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="688" spans="1:4">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
         <v>44872</v>
       </c>
@@ -10530,7 +10533,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="689" spans="1:4">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
         <v>44874</v>
       </c>
@@ -10544,7 +10547,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="690" spans="1:4">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
         <v>44874</v>
       </c>
@@ -10558,7 +10561,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="691" spans="1:4">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
         <v>44874</v>
       </c>
@@ -10572,7 +10575,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="692" spans="1:4">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
         <v>44879</v>
       </c>
@@ -10586,7 +10589,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="693" spans="1:4">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
         <v>44879</v>
       </c>
@@ -10600,7 +10603,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="694" spans="1:4">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
         <v>44879</v>
       </c>
@@ -10614,7 +10617,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="695" spans="1:4">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A695" s="1">
         <v>44881</v>
       </c>
@@ -10628,7 +10631,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="696" spans="1:4">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A696" s="1">
         <v>44881</v>
       </c>
@@ -10642,7 +10645,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="697" spans="1:4">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A697" s="1">
         <v>44881</v>
       </c>
@@ -10656,7 +10659,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="698" spans="1:4">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A698" s="1">
         <v>44886</v>
       </c>
@@ -10670,7 +10673,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="699" spans="1:4">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
         <v>44886</v>
       </c>
@@ -10684,7 +10687,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="700" spans="1:4">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A700" s="1">
         <v>44886</v>
       </c>
@@ -10698,7 +10701,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="701" spans="1:4">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A701" s="1">
         <v>44893</v>
       </c>
@@ -10712,7 +10715,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="702" spans="1:4">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A702" s="1">
         <v>44893</v>
       </c>
@@ -10726,7 +10729,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="703" spans="1:4">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A703" s="1">
         <v>44893</v>
       </c>
@@ -10740,7 +10743,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="704" spans="1:4">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A704" s="1">
         <v>44895</v>
       </c>
@@ -10754,7 +10757,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="705" spans="1:4">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A705" s="1">
         <v>44895</v>
       </c>
@@ -10768,7 +10771,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="706" spans="1:4">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A706" s="1">
         <v>44895</v>
       </c>
@@ -10782,7 +10785,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="707" spans="1:4">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A707" s="1">
         <v>44900</v>
       </c>
@@ -10796,7 +10799,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="708" spans="1:4">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A708" s="1">
         <v>44900</v>
       </c>
@@ -10810,7 +10813,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="709" spans="1:4">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A709" s="1">
         <v>44900</v>
       </c>
@@ -10824,7 +10827,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="710" spans="1:4">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A710" s="1">
         <v>44902</v>
       </c>
@@ -10838,7 +10841,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="711" spans="1:4">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A711" s="1">
         <v>44902</v>
       </c>
@@ -10852,7 +10855,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="712" spans="1:4">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A712" s="1">
         <v>44902</v>
       </c>
